--- a/一上/普物實驗/Lab5 複擺/實驗(五)複擺.xlsx
+++ b/一上/普物實驗/Lab5 複擺/實驗(五)複擺.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\普物實驗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asa_w\OneDrive\桌面\普物實驗\Lab5 複擺\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34BA8A35-8B3D-4DA8-ACF9-B059B7AABC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF3EF7-4DB4-419E-9807-8FE3C1EE8D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{67EBBEBC-9192-4630-A537-C32FCB8DA6D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" activeTab="1" xr2:uid="{67EBBEBC-9192-4630-A537-C32FCB8DA6D3}"/>
   </bookViews>
   <sheets>
     <sheet name="測量法" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>h1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南 g 理論值 cm/s2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +153,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +168,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -190,24 +214,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,6 +260,1065 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>曲線法!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>曲線法!$C$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>10cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50cm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60cm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70cm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>曲線法!$C$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0176666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0183333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0276666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E432-4245-9B28-C559AE65BDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>曲線法!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>曲線法!$C$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>10cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50cm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60cm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70cm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>曲線法!$C$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2.0346666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0153333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0043333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9973333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9996666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0066666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0190000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E432-4245-9B28-C559AE65BDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1275996239"/>
+        <c:axId val="1276001999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1275996239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276001999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276001999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275996239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163246</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7089840-0286-AA63-8ED4-25970F5D44B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,23 +1638,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474C6F4-FFF0-4B41-9E3F-3479E54446BB}">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>27.5</v>
+      </c>
+      <c r="C3">
+        <f>101.7-27.5</f>
+        <v>74.2</v>
+      </c>
+      <c r="D3">
+        <v>978.83199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,36 +1698,78 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <f>AVERAGE(C5:G5)</f>
+        <v>20.329999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <f>H5/10</f>
+        <v>2.0329999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>20.32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20.32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20.32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20.32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20.32</v>
+      </c>
+      <c r="H6" s="1">
+        <f>AVERAGE(C6:G6)</f>
+        <v>20.32</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6/10</f>
+        <v>2.032</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>4*(PI())^2/(((I5^2+I6^2)/(2*(B3+C3)))+((I5^2-I6^2)/(2*(B3-C3))))</f>
+        <v>972.93792128384484</v>
+      </c>
+      <c r="C9" s="4">
+        <f>(D3-B9)/D3</f>
+        <v>6.0215427327213961E-3</v>
       </c>
     </row>
   </sheetData>
@@ -621,24 +1780,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0E5EC0-2087-4E69-9390-7E4DA63B9EA3}">
-  <dimension ref="B3:K14"/>
+  <dimension ref="B3:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="104" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>101.7</v>
+      </c>
+      <c r="C4">
+        <v>978.83199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -663,100 +1837,414 @@
       <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20.21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20.22</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20.21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20.22</v>
+      </c>
+      <c r="K8" s="1">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20.21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20.22</v>
+      </c>
+      <c r="K9" s="1">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
+        <f>AVERAGE(D7:D9)</f>
+        <v>20.329999999999998</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E7:E9)</f>
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:K10" si="0">AVERAGE(F7:F9)</f>
+        <v>20.21</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>20.18</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>20.176666666666666</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>20.183333333333334</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>20.22</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>20.276666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="2">
+        <f>D10/10</f>
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:K12" si="1">E10/10</f>
+        <v>2.0260000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0176666666666665</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0183333333333335</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0276666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3">
+        <v>20.36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20.16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20.05</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19.98</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="I15" s="3">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20.07</v>
+      </c>
+      <c r="K15" s="3">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3">
+        <v>20.34</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20.04</v>
+      </c>
+      <c r="G16" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="H16" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="I16" s="3">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3">
+        <v>20.07</v>
+      </c>
+      <c r="K16" s="3">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3">
+        <v>20.34</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>20.04</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="H17" s="3">
+        <v>19.97</v>
+      </c>
+      <c r="I17" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <f>AVERAGE(D15:D17)</f>
+        <v>20.346666666666668</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:K18" si="2">AVERAGE(E15:E17)</f>
+        <v>20.153333333333332</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>20.043333333333333</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>19.973333333333333</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>19.97</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>19.996666666666666</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>20.066666666666666</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1">
+        <f>D18/10</f>
+        <v>2.0346666666666668</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:K20" si="3">E18/10</f>
+        <v>2.0153333333333334</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0043333333333333</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9973333333333332</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9969999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9996666666666667</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0066666666666668</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0190000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2.032</v>
+      </c>
+      <c r="C23">
+        <f>4*PI()^2*B4/B23^2</f>
+        <v>972.37387585132717</v>
+      </c>
+      <c r="D23" s="4">
+        <f>(C4-C23)/C4</f>
+        <v>6.5977860845097252E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
+  <mergeCells count="24">
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C9"/>
@@ -764,8 +2252,24 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>